--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.2986244063351069</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05583781646336868</v>
+        <v>0.05583781646336869</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3105781161342441</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2465876411405608</v>
+        <v>0.2470655957069572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03637182713990501</v>
+        <v>0.03628377400422864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.254694163216316</v>
+        <v>0.2598069510884206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04766082862127836</v>
+        <v>0.04641281369608217</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2652485123718254</v>
+        <v>0.2672541896459016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04658000028522954</v>
+        <v>0.04611063684472878</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3576754706547891</v>
+        <v>0.3532271273017665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08670314120282695</v>
+        <v>0.08524745672629204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3657950194805635</v>
+        <v>0.368641589716084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08623257440248847</v>
+        <v>0.08624873584903914</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3416141437610308</v>
+        <v>0.3466082368247287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07736021586595415</v>
+        <v>0.07804296130968455</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.148262436205839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06013988292664654</v>
+        <v>0.06013988292664652</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1461912484956381</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1116581923265928</v>
+        <v>0.1149792369779263</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0344179026824813</v>
+        <v>0.0353078483444565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1176718091247673</v>
+        <v>0.1181099707219512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04477524831397164</v>
+        <v>0.04572694410672668</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1210262077643185</v>
+        <v>0.1251048101341405</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04461600986414723</v>
+        <v>0.04563948665564344</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1743929623536223</v>
+        <v>0.177780565637717</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08163109915747009</v>
+        <v>0.08967151586863072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1835664858551784</v>
+        <v>0.1812963788376276</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07763636447742424</v>
+        <v>0.07871153548214203</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.168889889457818</v>
+        <v>0.1689196072606342</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07474474544499968</v>
+        <v>0.07491801851176157</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.120726040126367</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2038124058641291</v>
+        <v>0.203812405864129</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05905976752713585</v>
+        <v>0.05792293517912618</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1654850640875192</v>
+        <v>0.1661506332333292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.118113075138248</v>
+        <v>0.1154648377171622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1742397191468715</v>
+        <v>0.1732987157115615</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09619666231628665</v>
+        <v>0.09531257165335609</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.177745364600761</v>
+        <v>0.1788771222886826</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1175151861641047</v>
+        <v>0.1201994648690652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2418738037312613</v>
+        <v>0.2496583975054417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1976849687573923</v>
+        <v>0.1992104197962431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2390557412351132</v>
+        <v>0.2358981814759247</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1488156661989398</v>
+        <v>0.1481902902439565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.229111318148973</v>
+        <v>0.2320944046241399</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.2800736714179067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1252445718976005</v>
+        <v>0.1252445718976006</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2208530336782303</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1205840497409415</v>
+        <v>0.1253425608055521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08161552693207517</v>
+        <v>0.08394254210781925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2328078130741172</v>
+        <v>0.2329315668732643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09861831452290601</v>
+        <v>0.1008867974502686</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1897537096645678</v>
+        <v>0.1890845352443958</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09942946500651377</v>
+        <v>0.0995055746047282</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.198268827396071</v>
+        <v>0.2054948514635222</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1664175058418574</v>
+        <v>0.1610536134266874</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.332952243522287</v>
+        <v>0.3284990411094392</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1655954958510531</v>
+        <v>0.1596883109369963</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2526671842710901</v>
+        <v>0.2518417802017387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1501764046815983</v>
+        <v>0.1494751855164839</v>
       </c>
     </row>
     <row r="16">
@@ -940,19 +940,19 @@
         <v>0.3433526836315933</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07053546726941123</v>
+        <v>0.07053546726941122</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.4150703492587005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08611512906645245</v>
+        <v>0.08611512906645248</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3798260611395523</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07869898813351012</v>
+        <v>0.07869898813351013</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2791025489157803</v>
+        <v>0.2800055559736602</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04552046369638535</v>
+        <v>0.04608399923124327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3475739446567334</v>
+        <v>0.3502730581330349</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0623925062937981</v>
+        <v>0.06500877741363806</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3345077027259147</v>
+        <v>0.3367745195515124</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06107967242341362</v>
+        <v>0.06258359649797425</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4107750826870304</v>
+        <v>0.4049304820878432</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1039453857643774</v>
+        <v>0.1059514659264765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4833748824129734</v>
+        <v>0.4766018806892314</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1120581536533486</v>
+        <v>0.1120058352971274</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4256836332317631</v>
+        <v>0.4263370815831736</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09828260047029887</v>
+        <v>0.09804719062377276</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2158266794925419</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2296215557251798</v>
+        <v>0.2296215557251797</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2011149620374761</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1374287541528758</v>
+        <v>0.1378580489330876</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1812262535970985</v>
+        <v>0.1825418467556807</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1697744482715243</v>
+        <v>0.1667105102319629</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1945822031179315</v>
+        <v>0.1914119409759036</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1688803204661109</v>
+        <v>0.1684217148274383</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2000423658626792</v>
+        <v>0.1992391120163947</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2409192777420523</v>
+        <v>0.2349450361954458</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2659138540241937</v>
+        <v>0.2682040332643998</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.268811890421426</v>
+        <v>0.2695219556970818</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2687482815166472</v>
+        <v>0.2660938642766398</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2395889619146038</v>
+        <v>0.2378802841578797</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2544792860407222</v>
+        <v>0.2569056186009901</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.13377314827102</v>
+        <v>0.1348892040252459</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07296814916431126</v>
+        <v>0.07327794507130908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1791634717591794</v>
+        <v>0.1773378569533395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1102494949621558</v>
+        <v>0.112417885627475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1665507389702297</v>
+        <v>0.1650273031501265</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09831122235182665</v>
+        <v>0.09694866660989787</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1934693515849601</v>
+        <v>0.1949589554483161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1205978825888324</v>
+        <v>0.1237185731409336</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2411584585358812</v>
+        <v>0.2430475165752468</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1550779012556202</v>
+        <v>0.1586033675032826</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2104132718934314</v>
+        <v>0.2113271201469547</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.130340868731226</v>
+        <v>0.1299466542767689</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
         <v>0.2269980028132385</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.2816300661551533</v>
+        <v>0.2816300661551532</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1711658465688654</v>
+        <v>0.1704658736155737</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.191785118757182</v>
+        <v>0.1940039276028388</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2252404651535602</v>
+        <v>0.220748167713296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3144984529108892</v>
+        <v>0.3110574660521868</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2054257203946655</v>
+        <v>0.2063035663419156</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2605991200564238</v>
+        <v>0.2618790788522329</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2266122464960872</v>
+        <v>0.2285501095035038</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2472939108002705</v>
+        <v>0.2503988234060363</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2890338170075885</v>
+        <v>0.2896491677864619</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3710932767155615</v>
+        <v>0.3705923680062925</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2498928027449022</v>
+        <v>0.2484639380945524</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3016470933233534</v>
+        <v>0.3030317576319977</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72209</v>
+        <v>72348</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11597</v>
+        <v>11569</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>73531</v>
+        <v>75007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15064</v>
+        <v>14669</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>154251</v>
+        <v>155417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29574</v>
+        <v>29276</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>104738</v>
+        <v>103436</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27645</v>
+        <v>27181</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105606</v>
+        <v>106428</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27255</v>
+        <v>27260</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>198660</v>
+        <v>201564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49116</v>
+        <v>49550</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>55759</v>
+        <v>57417</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18264</v>
+        <v>18736</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>61327</v>
+        <v>61556</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24297</v>
+        <v>24813</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>123512</v>
+        <v>127675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47886</v>
+        <v>48984</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>87086</v>
+        <v>88778</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43317</v>
+        <v>47584</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>95670</v>
+        <v>94487</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42128</v>
+        <v>42712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>172359</v>
+        <v>172390</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>80222</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18763</v>
+        <v>18402</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52010</v>
+        <v>52220</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39722</v>
+        <v>38832</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>61812</v>
+        <v>61478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62913</v>
+        <v>62335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>118919</v>
+        <v>119677</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37335</v>
+        <v>38187</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>76019</v>
+        <v>78465</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66483</v>
+        <v>66996</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>84806</v>
+        <v>83686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>97327</v>
+        <v>96918</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>153286</v>
+        <v>155281</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44247</v>
+        <v>45993</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29820</v>
+        <v>30670</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89601</v>
+        <v>89649</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>40423</v>
+        <v>41352</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>142659</v>
+        <v>142156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77083</v>
+        <v>77142</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72753</v>
+        <v>75404</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>60803</v>
+        <v>58844</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>128144</v>
+        <v>126430</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67876</v>
+        <v>65454</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>189958</v>
+        <v>189338</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>116425</v>
+        <v>115881</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58952</v>
+        <v>59143</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9362</v>
+        <v>9478</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>75975</v>
+        <v>76565</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14125</v>
+        <v>14717</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>143774</v>
+        <v>144748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>26390</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86764</v>
+        <v>85530</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21378</v>
+        <v>21791</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>105659</v>
+        <v>104179</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25369</v>
+        <v>25357</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>182962</v>
+        <v>183243</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42464</v>
+        <v>42362</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>36161</v>
+        <v>36274</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>49059</v>
+        <v>49415</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46198</v>
+        <v>45364</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>51260</v>
+        <v>50425</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>90391</v>
+        <v>90145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>106852</v>
+        <v>106423</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>63391</v>
+        <v>61819</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>71985</v>
+        <v>72605</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>73147</v>
+        <v>73340</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>70798</v>
+        <v>70099</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>128237</v>
+        <v>127322</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>135929</v>
+        <v>137225</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>87082</v>
+        <v>87808</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>52454</v>
+        <v>52677</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>122224</v>
+        <v>120978</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>84894</v>
+        <v>86564</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>222038</v>
+        <v>220007</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>146374</v>
+        <v>144346</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>125942</v>
+        <v>126912</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>86694</v>
+        <v>88937</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>164516</v>
+        <v>165805</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>119413</v>
+        <v>122128</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>280514</v>
+        <v>281732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>194063</v>
+        <v>193476</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>133267</v>
+        <v>132722</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>152930</v>
+        <v>154700</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>185633</v>
+        <v>181930</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>260886</v>
+        <v>258031</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>329243</v>
+        <v>330650</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>423978</v>
+        <v>426060</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>176436</v>
+        <v>177945</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>197193</v>
+        <v>199669</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>238208</v>
+        <v>238716</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>307833</v>
+        <v>307417</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>400512</v>
+        <v>398222</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>490760</v>
+        <v>493013</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
     </row>
     <row r="40">
